--- a/inspection/jfeechart.xlsx
+++ b/inspection/jfeechart.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB95176A-4661-41E8-92C4-5046F80BBC88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,13 +244,22 @@
   </si>
   <si>
     <t>f_score</t>
+  </si>
+  <si>
+    <t>The location can be one of the constants: {@code NONE}, {@code RIGHT},
+     * {@code LEFT} and {@code BULB}.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throws IllegalArgumentException if {@code lowerBound} is not  less than {@code upperBound}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +274,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +296,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -282,10 +311,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,9 +334,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,20 +615,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,7 +642,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -622,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -630,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -638,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -646,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -657,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -668,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -679,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -690,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -701,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -712,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -723,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -734,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -745,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -756,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -767,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -778,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -789,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -800,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
@@ -809,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -823,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -837,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -851,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -865,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -876,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -887,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -898,18 +933,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
       </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F28" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -923,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -934,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -945,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -959,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -970,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -981,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -992,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1003,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -1014,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -1025,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
@@ -1036,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1047,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1058,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -1069,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -1080,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1091,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1102,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1113,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -1124,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -1135,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -1146,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -1157,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -1168,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -1179,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
@@ -1190,27 +1231,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
       </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
       <c r="E54" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="5"/>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
       <c r="E55" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -1224,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -1235,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -1246,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -1257,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -1268,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
@@ -1279,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>59</v>
       </c>
@@ -1290,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>60</v>
       </c>
@@ -1301,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>61</v>
       </c>
@@ -1312,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>61</v>
       </c>
@@ -1323,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>62</v>
       </c>
@@ -1334,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>62</v>
       </c>
@@ -1345,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>63</v>
       </c>
@@ -1356,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>65</v>
       </c>
@@ -1370,14 +1420,14 @@
       </c>
       <c r="D71" s="6">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E71" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>66</v>
       </c>
@@ -1390,7 +1440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>67</v>
       </c>
@@ -1404,14 +1454,14 @@
       </c>
       <c r="D75">
         <f>B73/D71</f>
-        <v>0.73076923076923073</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="E75">
         <f>C73/E71</f>
         <v>0.95454545454545459</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>68</v>
       </c>
@@ -1421,16 +1471,16 @@
       </c>
       <c r="C77">
         <f>(B73+C73)/(D71+E71)</f>
-        <v>0.87142857142857144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.83561643835616439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B79">
         <f>2*B77*C77/(B77+C77)</f>
-        <v>0.91044776119402981</v>
+        <v>0.89051094890510951</v>
       </c>
     </row>
   </sheetData>
